--- a/data files/Purchase Order/PRAGATI-MEDIGRIP.xlsx
+++ b/data files/Purchase Order/PRAGATI-MEDIGRIP.xlsx
@@ -1,35 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECTS\BS file manager\BS-order-manager\data files\Purchase Order\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{05546B75-AC0A-4EC2-BF07-516646DCD91A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44A39C9-83B3-416F-85B1-DE254582720C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4812" yWindow="804" windowWidth="17304" windowHeight="8880" xr2:uid="{CB53717F-5C7D-46F8-8857-4B00C5B6219B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{CB53717F-5C7D-46F8-8857-4B00C5B6219B}"/>
   </bookViews>
   <sheets>
     <sheet name="MASTER" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
   <si>
     <t>Dear Sir,</t>
   </si>
@@ -98,9 +89,6 @@
   </si>
   <si>
     <t>Hot Water Bottel Cornation Hands Free</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>SI.</t>
@@ -202,7 +190,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -221,11 +209,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -560,36 +545,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05746CE4-C5E2-43E7-9F6F-AC8D9629A283}">
   <dimension ref="A4:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="37.5546875" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" style="7" customWidth="1"/>
-    <col min="4" max="4" width="8.109375" customWidth="1"/>
-    <col min="5" max="5" width="6.109375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="6.5546875" customWidth="1"/>
+    <col min="2" max="2" width="37.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="6.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B4" s="11"/>
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="10"/>
       <c r="C4" s="6"/>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="B5" s="1"/>
       <c r="C5" s="6"/>
       <c r="D5" s="1"/>
       <c r="E5" s="2"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
@@ -598,7 +583,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
@@ -607,220 +592,210 @@
       <c r="E7" s="2"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="C8" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="D8" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="E8" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-    </row>
-    <row r="9" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="12" t="s">
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+    </row>
+    <row r="9" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="14">
-        <v>160</v>
-      </c>
-      <c r="E9" s="15" t="s">
+      <c r="D9" s="13">
+        <v>80</v>
+      </c>
+      <c r="E9" s="14" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="12" t="s">
+    <row r="10" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="15" t="s">
+      <c r="D10" s="13">
+        <v>30</v>
+      </c>
+      <c r="E10" s="14" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="12" t="s">
+    <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="14">
-        <v>60</v>
-      </c>
-      <c r="E11" s="15" t="s">
+      <c r="D11" s="13">
+        <v>40</v>
+      </c>
+      <c r="E11" s="14" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="12" t="s">
+    <row r="12" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="13"/>
+      <c r="E12" s="14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="13">
+        <v>10</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="14"/>
+    </row>
+    <row r="15" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="E15" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="13">
+        <v>40</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="11"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14"/>
+    </row>
+    <row r="18" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="13"/>
+      <c r="E18" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="13">
+        <v>5</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="16"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="14">
-        <v>10</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="12"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="15"/>
-    </row>
-    <row r="15" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="14">
-        <v>40</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="14">
-        <v>40</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="12"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="15"/>
-    </row>
-    <row r="18" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="14">
-        <v>5</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" s="8"/>
-    </row>
-    <row r="19" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="14">
-        <v>8</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" s="8"/>
-    </row>
-    <row r="20" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="17"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="8"/>
-    </row>
-    <row r="21" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="14">
-        <v>5</v>
-      </c>
-      <c r="E21" s="15" t="s">
+      <c r="C21" s="12"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="8"/>
-    </row>
-    <row r="22" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="16" t="s">
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22" s="15" t="s">
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="8"/>
-    </row>
-    <row r="23" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="16"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="15"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="15"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="14"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B24" s="16"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="15"/>
+    <row r="24" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="15"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="14"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B25" s="10"/>
+    <row r="25" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="9"/>
       <c r="C25" s="6"/>
       <c r="D25" s="1"/>
       <c r="E25" s="4"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" ht="15" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>3</v>
       </c>
@@ -829,7 +804,7 @@
       <c r="E26" s="2"/>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:6" ht="15" x14ac:dyDescent="0.2">
       <c r="B27" s="3" t="s">
         <v>4</v>
       </c>
@@ -838,34 +813,34 @@
       <c r="E27" s="2"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:6" ht="15" x14ac:dyDescent="0.2">
       <c r="B28" s="3"/>
       <c r="C28" s="6"/>
       <c r="D28" s="1"/>
       <c r="E28" s="2"/>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:6" ht="15" x14ac:dyDescent="0.2">
       <c r="B29" s="3"/>
       <c r="C29" s="6"/>
       <c r="D29" s="1"/>
       <c r="E29" s="2"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:6" ht="15" x14ac:dyDescent="0.2">
       <c r="C30" s="6"/>
       <c r="D30" s="1"/>
       <c r="E30" s="2"/>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:6" ht="15" x14ac:dyDescent="0.2">
       <c r="B31" s="1"/>
       <c r="C31" s="6"/>
       <c r="D31" s="1"/>
       <c r="E31" s="2"/>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:6" ht="15" x14ac:dyDescent="0.2">
       <c r="B32" s="1"/>
       <c r="C32" s="6"/>
       <c r="D32" s="1"/>
